--- a/cy页面对照表.xlsx
+++ b/cy页面对照表.xlsx
@@ -11,6 +11,43 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>官方活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity-offical.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息通告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51,7 +88,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -347,12 +385,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="48.25" customWidth="1"/>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.5" customHeight="1">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/cy页面对照表.xlsx
+++ b/cy页面对照表.xlsx
@@ -14,11 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>官方活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>activity-offical.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +41,42 @@
   </si>
   <si>
     <t>news.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congrats.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4官方活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5官方活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11物业费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14微社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenement.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>community.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16我</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +420,7 @@
   <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -403,51 +435,67 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>

--- a/cy页面对照表.xlsx
+++ b/cy页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>activity-offical.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消息通告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>news.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,6 +73,58 @@
   </si>
   <si>
     <t>16我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message-personage.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>home-pahe.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-1修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16商家优惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>favorable.htnl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方通告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 自费管家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steward.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13发起活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start-activity.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +468,7 @@
   <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -435,7 +483,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -459,67 +507,91 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1"/>

--- a/cy页面对照表.xlsx
+++ b/cy页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>activity-offical.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,22 @@
   </si>
   <si>
     <t>start-activity.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 发布消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue-news.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>install.ntml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +484,7 @@
   <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -594,12 +610,20 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>

--- a/cy页面对照表.xlsx
+++ b/cy页面对照表.xlsx
@@ -484,7 +484,7 @@
   <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/cy页面对照表.xlsx
+++ b/cy页面对照表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>activity-offical.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,22 @@
   </si>
   <si>
     <t>install.ntml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友邻活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friendly.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +500,7 @@
   <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -626,12 +642,20 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
